--- a/160315 App Yo Construyo - Modulos Contenido - Copy.xlsx
+++ b/160315 App Yo Construyo - Modulos Contenido - Copy.xlsx
@@ -3101,7 +3101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>

--- a/160315 App Yo Construyo - Modulos Contenido - Copy.xlsx
+++ b/160315 App Yo Construyo - Modulos Contenido - Copy.xlsx
@@ -3101,8 +3101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
